--- a/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
@@ -415,7 +415,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+    <t>「リソースがどこから来たかを特定する」</t>
   </si>
   <si>
     <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
@@ -438,7 +438,7 @@
     <t>このリソースが適合を主張するプロファイル</t>
   </si>
   <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+    <t>このリソースが準拠すると主張する [StructureDefinition](structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
   </si>
   <si>
     <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
@@ -681,7 +681,7 @@
     <t>デバイスラベルまたはパッケージに割り当てられた一意のデバイス識別子（UDI）。デバイスには、販売されている管轄権のためのudicarrierのみが含まれているか、販売されていた可能性のある複数の管轄区域のために、複数のudicarriersが含まれる場合があることに注意してください。 / Unique device identifier (UDI) assigned to device label or package.  Note that the Device may include multiple udiCarriers as it either may include just the udiCarrier for the jurisdiction it is sold, or for multiple jurisdictions it could have been sold.</t>
   </si>
   <si>
-    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](http://hl7.org/fhir/R4/device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
+    <t>UDIは、デバイスの一意のインスタンスを識別するか、デバイスのタイプのみを識別する場合があります。UDI部品のデバイスへの完全なマッピングについては、[udiマッピング]（device-mappings.html＃udi）を参照してください。 / UDI may identify an unique instance of a device, or it may only identify the type of the device.  See [UDI mappings](device-mappings.html#udi) for a complete mapping of UDI parts to Device.</t>
   </si>
   <si>
     <t>.id and .code</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Device.id</t>

--- a/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
+++ b/jpcore-r4/main/StructureDefinition-JP-Device.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
